--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_004.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_004.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295024EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell spray (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(600000AK2.10) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
-  </si>
-  <si>
-    <t>(295019AK2.10) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295030EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) ECCSs</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK2.19) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) High-pressure coolant injection</t>
-  </si>
-  <si>
-    <t>(295006AA2.04) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
-  </si>
-  <si>
-    <t>(295001AA1.06) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Power range monitoring system</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK2.08) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling building ventilation (Mark III)</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
-  </si>
-  <si>
-    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(295002AA2.02) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295008AK3.09) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) HPCS injection valve closure</t>
-  </si>
-  <si>
-    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
-  </si>
-  <si>
-    <t>(295009AA1.02) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control</t>
-  </si>
-  <si>
-    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
-  </si>
-  <si>
-    <t>(223002A2.06) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Containment instrumentation failures</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
-  </si>
-  <si>
-    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
-  </si>
-  <si>
-    <t>(217000K4.01) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevent water hammer</t>
-  </si>
-  <si>
-    <t>(261000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Primary containment pressure (Mark I and II)</t>
-  </si>
-  <si>
-    <t>(211000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor recirculation system</t>
-  </si>
-  <si>
-    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.02) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS bus power supply failure </t>
+    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
+  </si>
+  <si>
+    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
+  </si>
+  <si>
+    <t>(295037EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
+  </si>
+  <si>
+    <t>(295024EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell flooding</t>
+  </si>
+  <si>
+    <t>(600000AK2.07) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295016AA1.11) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RCIC</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
+  </si>
+  <si>
+    <t>(295025EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) ARI/RPT/ATWS</t>
+  </si>
+  <si>
+    <t>(295021AK2.03) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
+  </si>
+  <si>
+    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
+  </si>
+  <si>
+    <t>(295010AK2.07) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(295020AA1.01) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(215003K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Downscale</t>
+  </si>
+  <si>
+    <t>(205000A2.12) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(211000K4.09) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dampening of positive displacement pump discharge oscillations</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(261000K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4) (BWR 3, 4)</t>
+  </si>
+  <si>
+    <t>(400000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Radiation monitoring systems</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
+  </si>
+  <si>
+    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
+  </si>
+  <si>
+    <t>(264000A4.02) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchroscope</t>
+  </si>
+  <si>
+    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
   </si>
   <si>
     <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
   </si>
   <si>
-    <t>(239002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Pneumatic supply</t>
-  </si>
-  <si>
-    <t>(264000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Load sequencing</t>
-  </si>
-  <si>
-    <t>(218000K4.01) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of an inadvertent initiation of ADS logic</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(510000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(209002A4.01) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) HPCS pump</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291004K1.08) PUMPS (CFR: 41.3) (CENTRIFUGAL) Purpose of starting a pump with discharge valve closed</t>
-  </si>
-  <si>
-    <t>(262001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Generator trip</t>
-  </si>
-  <si>
-    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
-  </si>
-  <si>
-    <t>(223002A2.14) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor protection system failures</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(400000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW flow rate</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(201001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDH) CRD HYDRAULIC SYSTEM: (CFR: 41.6-7 / 41.10 / 45.1-6 / 45.8 / 45.12-13) AC power</t>
-  </si>
-  <si>
-    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t>(202001A2.24) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve opening due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(201003K4.09) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Movement of a control rod</t>
-  </si>
-  <si>
-    <t>(239001A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Main steam flow</t>
-  </si>
-  <si>
-    <t>(510001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pump suction low level</t>
-  </si>
-  <si>
-    <t>(245000K4.02) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Generator cooling</t>
-  </si>
-  <si>
-    <t>(288000K3.02) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Primary containment temperature</t>
-  </si>
-  <si>
-    <t>(219000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(215001A4.03) Ability to manually operate and/or monitor the (SF7 TIP) TRAVERSING IN CORE PROBE in the control room: (CFR: 41.7 / 45.5 to 45.8) Isolation valves (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292008K1.28) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain the necessity for inserting control rods in a predetermined sequence during normal shutdown</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293008K1.35) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe problems that thermal stratification can cause</t>
-  </si>
-  <si>
-    <t>(293007K1.07) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Describe how the presence of gases or steam can</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+    <t>(215005K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
+  </si>
+  <si>
+    <t>(203000K1.24) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Leak detection system</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291004K1.05) PUMPS (CFR: 41.3) (CENTRIFUGAL) Discuss relationships among head, flow, and power, as related to pump speed</t>
+  </si>
+  <si>
+    <t>(259002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor pressure/temperature input (for water level input compensation)</t>
+  </si>
+  <si>
+    <t>(217000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(212000A4.04) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Bypass SCRAM signals</t>
+  </si>
+  <si>
+    <t>(215003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(205000A2.08) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of heat exchanger cooling</t>
+  </si>
+  <si>
+    <t>(218000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve position indications</t>
+  </si>
+  <si>
+    <t>(211000K4.08) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SLCS initiation</t>
+  </si>
+  <si>
+    <t>(259001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) RFP turbine control valve position: turbine-driven only</t>
+  </si>
+  <si>
+    <t>(239001A4.12) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSR steam admission valves</t>
+  </si>
+  <si>
+    <t>(202001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.5 / 45.3) Natural circulation</t>
+  </si>
+  <si>
+    <t>(233000A2.18) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low pool clarity</t>
+  </si>
+  <si>
+    <t>(290003K2.04) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Control room HVAC logic</t>
+  </si>
+  <si>
+    <t>(510001K4.07) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cooling tower basin level control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(271000A3.03) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System temperature control </t>
+  </si>
+  <si>
+    <t>(216000K3.29) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump flow</t>
+  </si>
+  <si>
+    <t>(230000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) APRM signal input</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
+  </si>
+  <si>
+    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
+  </si>
+  <si>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
   </si>
   <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295017AA2.01) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Offsite release rate</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(286000A2.02) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical distribution failure</t>
-  </si>
-  <si>
-    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(290001A2.01) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Personnel airlock failure</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295002AA2.03) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Generator output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level </t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(400000A2.09) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to spent fuel pool cooling system heat exchanger</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000A2.15) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Cleanup demineralizer high differential pressure</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
+    <t>K6</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295004</t>
+    <t>295017</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295012</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>295002</t>
   </si>
   <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>204000</t>
   </si>
   <si>
     <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>290001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>3.5</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2364,7 +2364,7 @@
         <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
